--- a/data/電池回收.xlsx
+++ b/data/電池回收.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="1226">
   <si>
     <t>﻿標題</t>
   </si>
@@ -2074,6 +2074,9 @@
 </t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>〈台達電布局氫能〉南科百萬瓦級實驗室啟用 打造水電解製氫與氫燃料電池測試平台</t>
   </si>
   <si>
@@ -2120,6 +2123,9 @@
 政策環境變化可能影響氫能產業發展。
 能源價格波動可能影響氫能生產成本和市場競爭力。
 </t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>汽車舊電池不急著報廢，「二次電池」再利用潛力大 | 科技新報 | LINE TODAY</t>
@@ -2182,9 +2188,6 @@
 電池回收和再利用的相關法律法規的不完善。
 市場競爭激烈，需要持續提升技術和服務水平。
 </t>
-  </si>
-  <si>
-    <t>37</t>
   </si>
   <si>
     <t>非六都唯一　臺東縣府連6年獲政府服務獎 | 台灣好新聞 | LINE TODAY</t>
@@ -2762,10 +2765,10 @@
 </t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>38</t>
-  </si>
-  <si>
-    <t>-6</t>
   </si>
   <si>
     <t>電動車｜川普團隊推新能源削減：電動車補貼終止，國防供應鏈成重點</t>
@@ -3066,10 +3069,10 @@
 </t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>-10</t>
+    <t>92</t>
+  </si>
+  <si>
+    <t>-11</t>
   </si>
   <si>
     <t>路透社：特朗普計劃削減對電動車支持並對全球電池材料征稅 | 德國之聲 | LINE TODAY</t>
@@ -3134,13 +3137,10 @@
 </t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
-    <t>-1</t>
+    <t>-2</t>
   </si>
   <si>
     <t>取消7500元稅收抵免川普將推翻拜登電動車政策- 焦點新聞1 - 新聞</t>
@@ -3518,6 +3518,9 @@
 競爭對手可能推出更具競爭力的產品或服務。
 政府政策調整可能影響產業發展。
 </t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>巴塞隆納推回收捷運煞車電能 轉供電動車充電站</t>
@@ -4370,9 +4373,6 @@
 </t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>王欣儀成功爭取2025臺北燈節恢復發放小提燈- 政府消息新聞</t>
   </si>
   <si>
@@ -5355,9 +5355,6 @@
 </t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>Toyota獲美國能源部450萬美元補助 促進電動車電池循環利用</t>
   </si>
   <si>
@@ -5415,6 +5412,9 @@
 政府政策的變化可能影響計畫的資金支持。
 電池回收的市場需求和價格波動可能影響計畫的經濟效益。
 </t>
+  </si>
+  <si>
+    <t>72</t>
   </si>
   <si>
     <t>美琪瑪今法說，電池材料回收佈局受關注- 新聞</t>
@@ -5667,6 +5667,594 @@
   <si>
     <t xml:space="preserve">消費者對香港品牌的信任度下降。
 相關品牌可能採取法律行動反擊媒體報導。
+</t>
+  </si>
+  <si>
+    <t>速霸陸Forester Hybrid確認推出！預約明年中正式登場</t>
+  </si>
+  <si>
+    <t>https://autos.yahoo.com.tw/news/%E9%80%9F%E9%9C%B8%E9%99%B8forester-hybrid%E7%A2%BA%E8%AA%8D%E6%8E%A8%E5%87%BA-%E9%A0%90%E7%B4%84%E6%98%8E%E5%B9%B4%E4%B8%AD%E6%AD%A3%E5%BC%8F%E7%99%BB%E5%A0%B4-000000854.html</t>
+  </si>
+  <si>
+    <t>Yahoo先前有消息指出Subaru計畫將油電混合技術導入旗下車款，如今這項傳聞已被證實。根據Subaru北美官網的最新公預告，將於2025年中將推出Forester Hybrid，且比外界原先預估...2 小時前</t>
+  </si>
+  <si>
+    <t>首頁
+信箱
+新聞
+股市
+氣象
+運動
+Yahoo TV
+娛樂
+電影
+購物中心
+拍賣
+ 更多
+Yahoo Logo 
+ 網頁搜尋
+首頁 新車 機車 中古車 影音 圖輯 電動車 車險試算 保時捷認證
+首頁  車訊情報  速霸陸Forester Hybrid確認推出！預約明年中正式登場
+速霸陸Forester Hybrid確認推出！預約明年中正式登場
+地球黃金線 
+地球黃金線
+2024-12-27 08:00:00
+先前有消息指出Subaru計畫將油電混合技術導入旗下車款，如今這項傳聞已被證實。根據Subaru北美官網的最新公預告，將於2025年中將推出Forester Hybrid，且比外界原先預估的2026年亮相時間，還要提早了一些。
+Subaru官方表示，隨著越來越多駕駛希望減少碳足跡並提升燃油經濟性，混合動力系統成為當前市場的理想解方。這套Hybrid系統不僅能有效降低排放，還提供更優異的燃油效率與額外的動力輸出，滿足消費者多元需求。
+全新Forester Hybrid提供品牌引以為傲的AWD全時四輪驅動傳動形式。(圖片來源/ Subaru)
+作為Subaru旗下的暢銷SUV車款，全新Forester Hybrid提供品牌引以為傲的AWD全時四輪驅動傳動形式，還將搭載創新油電混合動力技術。目前有傳聞指出，這套系統以Subaru的2.5升水平對臥引擎為基礎，搭配1.1kWh電池組與電動馬達，馬達部分可以帶來118匹的輸出。
+更多新聞：速霸陸Crosstrek S:HEV開價81.6萬元起！Subaru跨界休旅搭Toyota油電技術
+更多新聞：2025《消費者報告》最佳汽車品牌出爐，Subaru一分之差擊敗BMW
+這套混合動力系統不僅能為車輛提供穩定輸出，甚至還支援純電模式，在低速行駛時可完全依靠電池供能，特別適合在都會區短途低速行駛。此外，這套系統內建的動能回充功能，也能在減速時回收能量，提升電池續航表現。
+這套混合動力系統不僅能為車輛提供穩定輸出，甚至還支援純電模式，在低速行駛時可完全依靠電池供能。(圖片來源/ Subaru)
+全新油電系統不僅專注於節能表現，更能增強車輛的操控穩定性，尤其在應對崎嶇路況或惡劣天氣時，仍然能提供可靠的駕駛體驗。然而，隨著技術升級，Forester Hybrid的價格可能較現有燃油車款更高，詳細定價與規格則有待Subaru官方進一步公佈。
+值得一提的是，這次預告的Forester Hybrid，是基於目前北美市場販售的第六代Forester車型，該車型目前尚未登陸台灣市場，台灣地區是否同步導入混合動力版本？目前仍有待觀察。
+延伸閱讀：
+Subaru Forester現在入手省10萬，家庭出遊Outdoor需求「野」能行
+9月買新車撿便宜？進口車促銷開戰！Peugeot 2008免費保養9年9萬公里超香？達人心中超值新車是？地球黃金線20240919(完整版)Peugeot 2008、Subaru Forester
+Subaru Forester大改款即將搭新一代e-Boxer，日本有望成油電車型首發市場
+Subaru Forester夏日優惠送好送滿！來店試乘抽Outdoor衝夏酷品
+[更多詳細資訊]
+🚘 看更多👉最新上架汽車車款
+🏍️ 看更多👉最新上架機車車款
+🚙 看更多👉熱門新車排行
+🔌 看更多👉電動車與油電車
+更多內容
+全新大改款Hyundai Santa Fe試駕，不止回歸粗獷風格，配備、格局更是直接拉滿！
+公路F1 Mercedes-AMG PureSpeed
+集寧靜與實用之大成Mazda CX-60 25S AWD Premium配備升級後更有看頭
+Eneos 攜行競科技拓展電動車儲能市場應用 推廣浸沒式冷卻電池系統技術
+Eneos 攜手行競科技共拓電動車輛與儲能市場應用，推廣浸沒式冷卻電池系統技術！
+相關車款
+2025 Subaru Forester 2.0  i-S EyeSight Black Edition
+2025 Subaru Forester 2.0 i-S EyeSight Black Edition
+129.8
+2025 Subaru Forester 2.0 i-S EyeSight
+2025 Subaru Forester 2.0 i-S EyeSight
+128.8
+2025 Subaru Forester 2.0 i-L EyeSight
+2025 Subaru Forester 2.0 i-L EyeSight
+118.8
+2025 Subaru Outback 2.5i-T EyeSight
+2025 Subaru Outback 2.5i-T EyeSight
+162.8
+2024 Subaru Crosstrek 2.0 i-S  EyeSight GT Edition Lite
+2024 Subaru Crosstrek 2.0 i-S EyeSight GT Edition Lite
+121.8
+相關中古車
+2016 Subaru 速霸陸 Levorg
+2016 Subaru 速霸陸 Levorg
+2016年6月 | 新北市
+39.8
+2018 Subaru 速霸陸 Levorg
+2018 Subaru 速霸陸 Levorg
+2018年10月 | 新北市
+58.8
+2013 Subaru 速霸陸 Impreza 5D
+2013 Subaru 速霸陸 Impreza 5D
+2013年11月 | 新北市
+18.8
+2014 Subaru 速霸陸 Outback
+2014 Subaru 速霸陸 Outback
+2014年2月 | 台中市
+28.8
+2018 Subaru 速霸陸 Forester
+2018 Subaru 速霸陸 Forester
+2018年11月 | 高雄市
+68.8
+推薦閱讀
+新款SYM MMBCU油耗逼近每公升50公里！三陽新曼巴與TTLBT靈龜快來了？ Dec
+26
+新款SYM MMBCU油耗逼近每公升50公里！三陽新曼巴與TTLBT靈龜快來了？
+地球黃金線
+2024年9月30日，環境部「使用中機動車輛噪音查詢資料庫」中，出現了三陽機車送測一款2025年式、代號「TDA16T2」的MMBCU，而在11月份能源署公布的油耗測試結果中，再次看見這款謎樣的MMBCU，繳出平均油耗49km/L的優異表現，連同米蘭車展發表的「靈龜」TTLBT也完成油耗認證，或許這兩款備受期待...
+導入日本 MPV 首款 PHEV 系統、HEV 新增入門款 8 人座規格，Toyota Alphard/Vellfire 新年式樣登場 Dec
+20
+導入日本 MPV 首款 PHEV 系統、HEV 新增入門款 8 人座規格，Toyota Alphard/Vellfire 新年式樣登場
+CarStuff 人車事
+Written by: Jason Hu還記得 Century SUV 車型發表的時候默默出現在旁邊的 Alphard/Vellfire PHEV 車型嗎？時隔一年多之後在電池供應狀況獲得舒緩之後，Toyota 總算先行於日本市場推出 Alphard PHEV/Vellfire PHEV 車型，將以電動車為導向的寧靜駕駛體驗、低噪音與低震動，以及安裝在地板下的...
+中國市場專屬運動版車型 Toyota Camry Glorious Edition Dec
+26
+中國市場專屬運動版車型 Toyota Camry Glorious Edition
+Carture 車勢文化
+Toyota在中國市場推出了全新的Camry Glorious Edition，這款特別版車型以其奢華的命名和運動化設計為亮點，將吸引更多油電動力轎車愛好者的注意，作為一款針對中國市場的專屬車型，它結合了現代設計、高端內飾和優異的動力系統，為傳統Camry注入了新活力。Toyota在中國市場推出了專屬特仕版車...
+二度小改Audi SQ7 TFSI quattro試駕！宜室宜家很正常...但也滿滿衝突與反常？ Dec
+26
+二度小改Audi SQ7 TFSI quattro試駕！宜室宜家很正常...但也滿滿衝突與反常？
+Yahoo奇摩汽車機車
+（文／Jason Chen）若是只看到「三排七座、氣壓懸吊、四輪驅動」等訊息，或許會以為又是哪家豪華品牌針對家用族群推出的最新產品，但若又在加入「四升八缸雙渦輪、零百加速4.1秒、全輪驅動」後...等等？這到底是什麼概念？當然，老實說我也不是很清楚，不如來問問Audi S Q7 TFSI quattro吧。
+【鏡試駕】科技小金剛！BMW 1-Series 120 M Sport Dec
+27
+【鏡試駕】科技小金剛！BMW 1-Series 120 M Sport
+鏡車誌
+什麼樣的車能在繁忙的都市生活中遊刃有餘，同時滿足駕駛者對駕馭樂趣的渴望？全新世代的 BMW 1 Series，以兼具豪華與實用的特性，重新定義了掀背車的標準。在動力、操控與科技之間找到巧妙平衡，讓每位駕駛者都能踏出屬於自己的動感節奏。
+試駕／Mazda2 15S Midnight Edition，找回純粹駕駛樂趣 Dec
+26
+試駕／Mazda2 15S Midnight Edition，找回純粹駕駛樂趣
+地球黃金線
+台灣馬自達於2024年11月推出Mazda2 15S Midnight Edition，這款久經市場考驗的小型掀背車，透過外觀配色的微幅更動，加上多達9萬元的降價幅度，再次吸引消費者目光。現行Mazda2自2015年進入台灣市場以來，便以「魂動」設計語言贏得一席之地。2023年底，24年式車型將雙車型策略簡化為單一的15S...
+歐洲汽車產業危機延燒！賓士車標製造商申請破產 Dec
+26
+歐洲汽車產業危機延燒！賓士車標製造商申請破產
+中天新聞網
+德國知名汽車零件供應商Gerhardi Kunststofftechnik近日申請破產，標誌著歐洲汽車產業危機進一步惡化。這家公司成立於1796年，曾為豪華車品牌賓士（Mercedes-Benz）提供車門把手、汽車格柵等高品質鍍鉻裝飾件。儘管擁有超過兩百年的歷史與專業技術，Gerhardi最終難敵原材料成本上漲與需求萎縮...
+Stellantis的救世主？烙跑總裁Carlos Ghosn是選項之一 Dec
+26
+Stellantis的救世主？烙跑總裁Carlos Ghosn是選項之一
+CarFun玩車誌
+在汽車業界，Carlos Ghosn這個名字曾代表著卓越的管理能力和驚人的復甦能力，雖然這位曾經挽救Nissan、雷諾Renault和三菱Mitsubishi的傳奇領導者被戲稱為烙跑總裁，但他或許正是Stellantis需要的救世主，在這個汽車行業處於動盪的時代，Carlos Ghosn的經驗和遠見或許能為這家疲軟的跨國汽車巨...
+Porsche Taycan挑戰一天行駛1111公里 Dec
+26
+Porsche Taycan挑戰一天行駛1111公里
+CarStuff 人車事
+Written by: BearPorsche邀請國際媒體參加了一場特殊的純電動測試。純電動汽車的續航里程太短，並且充電並不實際。當人們談到電動車時，這往往是反覆被提及的兩個問題。
+法國皮卡Peugeot Landtrek改款亮相，新增2.2升柴油引擎越野更有勁 Dec
+26
+法國皮卡Peugeot Landtrek改款亮相，新增2.2升柴油引擎越野更有勁
+地球黃金線
+Peugeot最近針對旗下皮卡車Landtrek推出小改款車型，這款活躍於中東、南美洲、非洲市場的車型，以全新的外觀設計、更強悍的動力系統及進階安全科技，強化市場競爭力，成為多功能皮卡車中的亮點。
+沒有方向盤也可以開　特斯拉CyberCab可以用Xbox遙控器控制 Dec
+26
+沒有方向盤也可以開　特斯拉CyberCab可以用Xbox遙控器控制
+CarFun玩車誌
+Tesla特斯拉的CyberCab近期在加州的彼得森汽車博物館展出時，因其完全缺乏傳統駕駛控制系統，像是方向盤與油門、煞車踏板，因此引起熱烈討論，隨後曝光的報導指出，這款車輛是透過一個類似Xbox遊戲控制器的設備進行操控，為Tesla的自動駕駛技術提供了一個引人注目的預備方案。 特斯拉CyberCab...
+75.9萬/83.9萬，LUXGEN U6 NEO、URX NEO黑+特仕版限量上市 Dec
+26
+75.9萬/83.9萬，LUXGEN U6 NEO、URX NEO黑+特仕版限量上市
+CarStuff 人車事
+Written by: Jason Hu繼11月LUXGEN將全車系購車線上化後，URX NEO 、U6 NEO也再推出「黑+特仕版」給予消費者更多不一樣的選擇！由於新世代純電休旅n⁷ 5人純粹版黑化的輪框設計廣受消費者好評，這次LUXGEN也特別將這式樣延伸到URX NEO、U6 NEO上，以18吋黑+鋁圈、全新車色「極夜黑」與「永晝白...
+愛改車機車族注意！2025年元旦起「非原廠」排氣管須登記 Dec
+25
+愛改車機車族注意！2025年元旦起「非原廠」排氣管須登記
+CTWANT
+[周刊王CTWANT] 交通部公路局表示，自2025年1月1日起，民眾機車更換非原廠（改裝）排氣管，應使用經過環境部噪音管制認證，且能對應該機車型式之排氣管，並附監理機關檢驗合格辦理變更登記。新措施主要為交通部配合環境部推動排氣管噪音認證從源頭管理，將機車排氣管納為應至公路監理機關辦...
+2025彰化賽車節下周登場　王惠美：台灣封街賽規模最大的賽事 Dec
+26
+2025彰化賽車節下周登場　王惠美：台灣封街賽規模最大的賽事
+匯流新聞網
+CNEWS匯流新聞網記者徐德芬／彰化報導 台灣極限賽車運動發展協會主辦第4屆「2025彰化賽車節」，將於明（114）年1月4日至5日，在田中高鐵彰化站周邊區域隆重舉辦，本次賽事將融合電動、油電以及油車三大主題。彰化縣長王惠美表示，今年活動特別邀請美國知名人氣車手Hana Burton與台灣知名人氣...
+U-POWER 超高速充電站時段費率調整公告 自2025年1月1日凌晨00:00起實施 Dec
+26
+U-POWER 超高速充電站時段費率調整公告 自2025年1月1日凌晨00:00起實施
+CarStuff 人車事
+Written by: Jason Hu回顧2024年，臺灣共調漲了2次電價，繼4月份全面調升民生及工業用電價格後，時隔半年，臺電於10月再度宣佈新一波電價調漲，唯本次電價上漲範圍在工業用電，民生用電並未調整。而電動車充電業者所適用之「電動車充換電設施電價」，漲幅為17%。
+【鏡車試駕】純電藍調　Volkswagen ID.4 Pro S Dec
+26
+【鏡車試駕】純電藍調　Volkswagen ID.4 Pro S
+鏡車誌
+這幾年純電車在全球可說是蓬勃發展，也讓市場上可供選擇的車款百家爭鳴；不過福斯集團旗下的Volkswagen，卻在同集團的ŠKODA或者AUDI在國內紛紛端出純電產品之時，直到今年才將旗下的電動車ID.系列正式在台灣發表，而要知道，ID.車系在國外的問世，早已經要回朔到2020年，相隔了四年才引進台灣...
+豐田汽車的雙面鏡 銷量創新高 產量卻連跌不止 Dec
+26
+豐田汽車的雙面鏡 銷量創新高 產量卻連跌不止
+火報
+火報記者 陳銳/報導 豐田汽車在全球市場的表現像是一面雙面鏡：一邊是銷量屢創新高，另一邊卻是產量連續下滑的困境 …
+三陽董座吳清源跳腳、中華車不能賣MG　國產車自製率新制弊大於利？ Dec
+26
+三陽董座吳清源跳腳、中華車不能賣MG　國產車自製率新制弊大於利？
+天下雜誌
+三陽董座吳清源近期大動作宣布，旗下南陽實業、三陽（SYM）雙雙退出車輛公會會員。上路4個月的國產車自製率新規定，為何惹怒他？同樣受衝擊的中華汽車MG品牌，如何因應新制？
+接單二個月至今銷售訂單突破500台，HYUNDAI全新Santa Fe 80%選購最高階車型！ Dec
+26
+接單二個月至今銷售訂單突破500台，HYUNDAI全新Santa Fe 80%選購最高階車型！
+CARLINK鏈車網
+自2024年10月底上市以來，Hyundai 全新大改款 Santa Fe 迅速吸引市場注意，接單二個月至今銷售訂單突破500台。這款車型以其全新的設計理念和卓越的內部空間，滿足了現代消費者對高質感、舒適空間及戶外生活方式的需求，成功贏得了消費者的青睞。銷售成功背後的設計理念 全新Santa Fe突破性的...
+Mazda MX-5 RF直線加速竟跑贏新大牛Revuelto Dec
+26
+Mazda MX-5 RF直線加速竟跑贏新大牛Revuelto
+Carture 車勢文化
+Mazda MX-5 RF和Lamborghini Revuelto是天差地遠完全不同等級的車款，但這兩車竟然被安排在場上進行直線對決，而且讓人意外的是MX-5竟然還贏了！當然是有對大牛做些限制。Mazda MX-5 RF是款平價敞篷跑車，Lamborghini Revuelto則是新一代大牛，兩車定位、價格與性能完全不在同一級距，但外媒...
+找新車 找機車 找中古車
+Mazda 馬自達
+2025 CX-60
+焦點影音
+【原廠碟盤會抖動？！】輔助駕駛設三格刹不住？一米九五公務車停車常常吃鱉！｜BMW 420 i、Volvo XC60、Hyundai Starex【車主長期追蹤EP87】
+【原廠碟盤會抖動？！】輔助駕駛設三格刹不住？一米九五公務車停車常常吃鱉！｜BMW 420 i、Volvo XC60、Hyundai Starex【車主長期追蹤EP87】
+【LSUV懸吊系統是成敗關鍵？！】新世代內裝佈局質感大提升！『這個』配備竟讓嘉偉哥想拔掉？！｜Hyundai SANTA FE GLTH-C Premium六座型新車試駕
+【LSUV懸吊系統是成敗關鍵？！】新世代內裝佈局質感大提升！『這個』配備竟讓嘉偉哥想拔掉？！｜Hyundai SANTA FE GLTH-C Premium六座型新車試駕
+【跳脫商用車格局！】導入新世代外型與數位座艙！五座七座布丁狗使用者會怎麼選？｜CITROËN BERLINGO 新車試駕
+【跳脫商用車格局！】導入新世代外型與數位座艙！五座七座布丁狗使用者會怎麼選？｜CITROËN BERLINGO 新車試駕
+more
+熱門中古車排行 40萬 - 60萬
+1BMW 寶馬 2015 2-Series Active Tourer 
+BMW 寶馬 2015 2-Series Active Tourer
+41.8
+2Ford 福特 2021 Kuga 
+Ford 福特 2021 Kuga
+45.8
+3Citroen 雪鐵龍 2015 DS 3 
+Citroen 雪鐵龍 2015 DS 3
+49.0
+more
+服務中心 | 網站地圖 | 隱私權(更新) | 服務條款(更新) | 關鍵字廣告 | 
+    目前選擇0輛 開始比較
+取消比較</t>
+  </si>
+  <si>
+    <t>2024-12-27 18:21:44</t>
+  </si>
+  <si>
+    <t>汽車</t>
+  </si>
+  <si>
+    <t>Subaru 宣佈將於 2025 年年中推出 Forester Hybrid 油電混合動力車款，比原先預估的 2026 年提前上市。  這款車將搭載 Subaru  2.5 升水平對臥引擎為基礎的油電混合動力系統，包含 1.1kWh 電池組和電動馬達，馬達可提供 118 匹馬力，並支援純電模式和動能回收功能。Forester Hybrid 將維持 Subaru 品牌的 AWD 全時四輪驅動系統，但售價預計將高於現有燃油車款。目前，這款車型僅在北美市場推出，台灣市場是否導入仍有待觀察。</t>
+  </si>
+  <si>
+    <t>Subaru北美官網預告，2025年中將推出Forester Hybrid，比原先預估時間提前。官方表示，混合動力系統能降低排放、提升燃油效率與動力輸出。Forester Hybrid搭載AWD全時四輪驅動，傳聞採用2.5升水平對臥引擎、1.1kWh電池組與電動馬達，馬達輸出118匹。支援純電模式和動能回充功能，提升操控穩定性。Forester Hybrid價格可能高於現有燃油車款，台灣市場導入仍待觀察。</t>
+  </si>
+  <si>
+    <t>Subaru、速霸陸、Forester、ForesterHybrid、油電混合動力、Hybrid、AWD、全時四輪驅動、2.5升水平對臥引擎、1.1kWh電池組、電動馬達、純電模式、動能回充、北美市場、台灣市場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提前上市時間，搶佔市場先機。
+結合了Subaru品牌優勢的AWD系統和油電混合動力技術，提升產品競爭力。
+純電模式和動能回收功能提升燃油效率和駕駛體驗。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">價格預計高於燃油車款，可能影響部分消費者的購買意願。
+目前僅在北美市場推出，台灣市場導入時間和銷售狀況存在不確定性。
+電池容量相對較小，純電續航里程可能有限。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">滿足消費者對環保和節能的creciente需求。
+擴大Subaru在SUV市場的佔有率。
+若台灣市場導入成功，可提升Subaru在台灣的品牌形象和銷售表現。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競爭對手的油電混合動力車款眾多，市場競爭激烈。
+電池技術和原材料價格波動可能影響生產成本和利潤。
+消費者對油電混合動力車的接受度和認知程度。
+</t>
+  </si>
+  <si>
+    <t>紐約市王后區擴大舊衣物回收服務</t>
+  </si>
+  <si>
+    <t>https://www.epochtimes.com/b5/24/12/28/n14399657.htm</t>
+  </si>
+  <si>
+    <t>大紀元新聞網紐約市清潔局宣布，加强王后區回收「特殊廢棄物」和舊衣物的服務。王后區「特殊廢棄物」的回收點位於大學點（College Point）120街和122街之間的30大道，目前每週運作三...58 分鐘前</t>
+  </si>
+  <si>
+    <t>.紐約市王后區擴大舊衣物回收服務
+【大紀元2024年12月28日訊】（大紀元記者林丹紐約報導）紐約市清潔局宣布，加强王后區回收「特殊廢棄物」和舊衣物的服務。王后區「特殊廢棄物」的回收點位於大學點（College Point）120街和122街之間的30大道，目前每週運作三天（週四、週五和週六），上午9點至下午5點；可回收：電子產品、油漆、電池、機油、燈泡和汽車輪胎等。查詢全市地點：https://shorturl.at/UrvIS
+清潔局代理局長哈維爾·洛揚（Javier Lojan）說：「王后區的許多家庭都忙於處理繁忙的日程，尤其是在假期期間。增加服務，讓更多人有機會清除家中潛在的危險材料，並確保它們得到負責任的處理。」
+此外，在王后區第146大道153-67號（153-67 146th Ave）的「環衛車庫」（Sanitation garage），有了一個新的衣物回收站，回收衣服、鞋子、床單、背包以及毛絨玩具等織品。查詢全市地點：https://shorturl.at/C5qmB有關回收物品和處置指南，居民可以使用市清潔局網站的「如何扔東西」（How to Get Rid Of）的工具。
+責任編輯：鄭樺</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:14:50</t>
+  </si>
+  <si>
+    <t>紐約市清潔局宣布擴大王后區的廢棄物回收服務，新增衣物回收站及擴大特殊廢棄物的回收時間和地點。特殊廢棄物回收點位於大學點，每週四、五、六開放，可回收電子產品、油漆、電池、機油、燈泡和汽車輪胎等。新的衣物回收站則位於王后區第146大道153-67號，回收衣服、鞋子、床單、背包以及毛絨玩具等織品。此舉旨在方便居民處理家中廢棄物，並確保其得到負責任的處理。</t>
+  </si>
+  <si>
+    <t>紐約市清潔局宣布加强王后區回收「特殊廢棄物」和舊衣物的服務。王后區「特殊廢棄物」的回收點位於大學點，目前每週運作三天（週四、週五和週六），上午9點至下午5點；可回收：電子產品、油漆、電池、機油、燈泡和汽車輪胎等。在王后區第146大道153-67號的「環衛車庫」，有了一個新的衣物回收站，回收衣服、鞋子、床單、背包以及毛絨玩具等織品。居民可以使用市清潔局網站的「How to Get Rid Of」工具查詢回收資訊。</t>
+  </si>
+  <si>
+    <t>紐約市、清潔局、王后區、回收、特殊廢棄物、舊衣物、電子產品、油漆、電池、機油、燈泡、汽車輪胎、衣物回收站、環衛車庫、CollegePoint、153-67146thAve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">擴大回收服務，方便居民處理廢棄物，提升生活品質。
+增加了特殊廢棄物和舊衣物的回收種類，更環保。
+提供線上查詢工具，方便居民查找回收地點和資訊。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回收點數量有限，可能無法滿足所有居民的需求。
+回收服務的宣傳力度可能不足，導致部分居民不知情。
+回收流程可能不夠完善，需要持續改進。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以進一步擴大回收服務的覆蓋範圍，服務更多居民。
+可以與社區組織合作，推廣回收理念，提高居民參與度。
+可以探索更有效的回收方式，提高回收效率。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">回收成本高昂，需要政府持續投入資金。
+回收垃圾的分類和處理存在挑戰，需要技術支持。
+部分居民可能缺乏環保意識，影響回收效果。
+</t>
+  </si>
+  <si>
+    <t>中國串聯太陽能電池技術突破光電轉化效率達25.7% 開啟清潔能源新時代| 世界新鮮事</t>
+  </si>
+  <si>
+    <t>https://vocus.cc/article/676e95fdfd89780001427481</t>
+  </si>
+  <si>
+    <t>Vocus中國科學院與波茨坦大學合作開發新型串聯太陽能電池，光電轉化效率達25.7%，突破技術瓶頸，為清潔能源應用開辟新前景，並推動全球能源轉型。 太陽能, 清潔能源, 科技突破,...15 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+世界新鮮事
+首頁
+關於
+中國串聯太陽能電池技術突破 光電轉化效率達25.7% 開啟清潔能源新時代
+世界焦點-avatar-img
+世界焦點
+更新於 2024/12/27
+發佈於 2024/12/27
+閱讀時間約 4 分鐘
+近日，中國在太陽能電池技術領域取得重大突破，串聯太陽能電池的光電轉化效率達到25.7%，這一成就由中國科學院研究團隊與德國波茨坦大學科學家共同開發，並發表於國際頂尖期刊《自然》。這項技術不僅提升了太陽能電池的效率，更為全球清潔能源的應用開辟了新的可能性。
+技術突破：結合過氧化物與有機吸收劑
+研究團隊將過氧化物太陽能電池與新型有機吸收劑結合，創造出一種新型串聯太陽能電池結構。這種設計不僅提高了光電轉化效率，還改善了電池的性能和穩定性。特別值得一提的是，團隊成功實現了1.36V的開路電壓，這對提升鈣鈦礦/有機疊層太陽能電池的效率至關重要。
+過氧化物太陽能電池利用鈣鈦礦材料作為吸收層，具有製造成本低、可調整帶隙等優勢；而有機吸收劑則具有良好的光吸收能力和靈活性。兩者的結合使得串聯太陽能電池能夠更高效地吸收不同波長的光，從而大幅提升整體效率。
+國際合作：中德科研團隊攜手攻關
+這項突破性成果的背後，是中國科學院與波茨坦大學的緊密合作。中國科學院的孟雷教授和李永芳教授在鈣鈦礦與有機太陽能電池領域具有豐富的研究經驗，而波茨坦大學的Felix Lang博士則專注於新型光伏材料的開發。雙方共同克服了材料結合與缺陷控制等技術難題，最終實現了這一創紀錄的效率。
+Felix Lang博士表示：「只有將兩項重大突破結合起來，才有可能實現這一創紀錄的25.7%的效率。」這一合作不僅展示了國際科研協作的力量，也為未來更多跨國合作提供了範本。
+商業化前景：市場潛力巨大
+這項技術的突破為串聯太陽能電池的商業化鋪平了道路。根據市場研究，全球太陽能市場預計到2030年將達到約3000億美元的規模。串聯太陽能電池因其高效率、低成本的特性，有望在多個領域得到廣泛應用，包括便攜式能源、建築光伏一體化、交通工具及可穿戴設備等。
+此外，由於鈣鈦礦材料的低製造成本和簡化生產流程，串聯太陽能電池的生產成本預計將低於傳統矽基太陽能電池。這使得其在未來大規模應用中更具競爭力，並有助於推動全球能源轉型。
+環境與社會效益：助力全球氣候目標
+這項技術的突破對環境和社會也將產生深遠影響。首先，高效率的太陽能電池能夠減少對化石燃料的依賴，從而降低碳排放。其次，隨著技術的商業化，預計將創造大量就業機會，並促進相關產業的發展。
+更重要的是，這項技術有助於各國實現《巴黎協定》中的減排目標，加速全球向低碳經濟轉型。中國政府近年來大力支持清潔能源發展，並設定了2030年碳排放達峰、2060年實現碳中和的目標。串聯太陽能電池技術的突破，正是中國能源戰略的重要一環。
+未來挑戰與研究方向
+儘管這項技術取得了顯著進展，但在商業化過程中仍面臨一些挑戰，包括電池的穩定性、大規模生產的可行性以及材料缺陷的控制等。未來的研究將集中在進一步提升效率、降低生產成本以及擴大應用範圍等方面，以推動這項技術的商業化進程。
+結論
+中國在串聯太陽能電池技術上的突破，不僅提升了光電轉化效率，也為全球清潔能源的發展提供了新的解決方案。隨著技術的不斷成熟和商業化步伐的加快，這項技術有望在多個領域發揮重要作用，推動全球向可再生能源轉型，為實現可持續發展目標貢獻力量。
+#太陽能
+#清潔能源
+#科技突破
+#國際合作
+#鈣鈦礦
+#光電轉化
+#能源轉型
+#商業化
+#中國科學院
+#波茨坦大學
+#光電
+#能源
+#成本
+#清潔
+#有機
+#商業
+#電池
+avatar-img
+世界新鮮事
+8
+會員
+521
+內容數
+世界新鮮事
+加入
+前往沙龍
+留言0
+查看全部
+avatar-img
+發表第一個留言支持創作者！
+世界新鮮事 的其他內容
+螢幕保護程式：從實用工具到趣味裝飾的轉變
+文章探討螢幕保護程式從防止顯示器烙印的實用工具，轉變為現代趣味裝飾的歷程，分析其技術背景、現代用途、優缺點及未來發展，反映顯示技術進步與使用者需求的變化。
+#螢幕保護程式
+#顯示技術
+#科技演變
+微軟與OpenAI重新定義通用人工智慧（AGI），瞄準千億美元經濟價值
+微軟與OpenAI重新定義通用人工智慧（AGI），強調其經濟價值，預計創造千億美元利潤。文章探討AGI的技術、商業應用及國際競爭，並分析其對全球經濟的潛在影響與挑戰。
+#人工智慧
+#AGI
+#微軟
+抵禦量子電腦威脅：零知識證明成區塊鏈護盾
+本文探討零知識證明（ZKP）在區塊鏈中的重要性，特別是其抵禦量子電腦威脅的能力。文章介紹ZKP的基本概念、抗量子特性及廣泛應用場景，並分析其未來發展與挑戰。
+#區塊鏈
+#零知識證明
+#量子電腦
+馬斯克與阿特曼的AI理念分歧：從OpenAI到友誼破裂
+本文探討了伊隆·馬斯克與薩姆·阿特曼在AI發展理念上的分歧，以及他們因OpenAI商業化而破裂的友誼。文章分析了兩人對AI風險與未來的不同看法，並探討了這一事件對OpenAI及AI行業的深遠影響。
+#人工智慧
+#OpenAI
+#伊隆·馬斯克
+全球學生學習能力下降，OECD研究揭示智力發展挑戰
+OECD最新報告指出，全球學生在數學與閱讀能力上顯著下降，尤其是2022年PISA評比顯示15歲學生能力為2000年以來最低。疫情、教育系統適應性及數位環境影響是主要原因。部分亞洲國家表現優異，顯示教育系統的靈活性與質量至關重要。未來需改革教育體系，加強個性化學習與心理健康支持。
+#教育
+#學習能力
+#PISA
+蘋果M4 Mac mini：卓越性能與環保設計的完美結合
+蘋果的M4 Mac mini搭載全新M4處理器，性能提升顯著，尤其在多核處理和遊戲性能方面表現優越。其小巧設計與環保特性也獲得好評，並成功吸引專業與日常消費者，成為市場上的強勁競爭者。
+#蘋果
+#桌面電腦
+#處理器
+你可能也想看
+Google News 追蹤
+avatar-avatar
+方格子 vocus 官方沙龍
+2024/11/27
+Thumbnail
+🔔 叮咚～時代的眼淚：投稿懷舊主題，vocus 送你經典「偉士牌樂高」！
+徵的就是你 🫵 超ㄅㄧㄤˋ 獎品搭配超瞎趴的四大主題，等你踹共啦！還有機會獲得經典的「偉士牌樂高」喔！馬上來參加本次的活動吧！
+#時代的眼淚
+#懷舊追星
+#懷舊ACG
+avatar-avatar
+理財人妻Vivi
+2024/12/25
+Thumbnail
+為什麼選擇美股？從入門策略到如何突破理財門檻 with 國泰世華CUBE App
+隨著理財資訊的普及，越來越多台灣人不再將資產侷限於台股，而是將視野拓展到國際市場。特別是美國市場，其豐富的理財選擇，讓不少人開始思考將資金配置於海外市場的可能性。 然而，要參與美國市場並不只是盲目跟隨標的這麼簡單，而是需要策略和方式，尤其對新手而言，除了選股以外還會遇到語言、開戶流程、Ap
+#美股小白
+#國泰世華銀行
+#國泰世華
+avatar-avatar
+唐志偉的沙龍
+2024/06/25
+綠電革命：太陽光電如何改變我們的未來？
+隨著全球對環保意識的提升，綠電成為了未來能源發展的主要方向。而在眾多綠電形式中，太陽光電因其清潔、可再生且成本逐漸降低的特點，成為了各國積極推動的重點項目。本文將帶你了解太陽光電的發展現狀、優勢以及面臨的挑戰，並分析它如何改變我們的未來。
+avatar-avatar
+Allen Liu的沙龍
+2024/05/27
+太陽能
+ocs.google.com/spreadsheets/d/1iOhu1G6N6vkBraffOXhnGPuPsSVU73PGaLzUDME2kh8/edit#gid=428533053 聯合再生2022年海外營收比重一度站上5成，2023年全球太陽能供過於求嚴重、庫存高築，造成海外市場也不理想，
+avatar-avatar
+唐志偉的沙龍
+2024/05/14
+太陽能屋頂：未來綠能發展的新趨勢
+隨著全球環保意識的提升以及可再生能源技術的進步，太陽能屋頂成為一種廣受關注的綠能解決方案。在這個過程中，「種電」這個關鍵字越來越多地出現在我們的日常生活中。所謂「種電」，即是在屋頂上安裝太陽能板，通過光伏技術將陽光轉化為電能。這種技術不僅能夠減少碳排放，還能為家庭和企業提供穩定的電力來源。本文將深入
+avatar-avatar
+唐志偉的沙龍
+2024/04/30
+革命太陽能源：向著能源自給自足的未來邁進！
+在當今這個充滿挑戰的時代，能源自給自足成為了一個關鍵的目標，而太陽能技術的迅速發展正在為我們實現這一目標打開大門。太陽能的革命不僅僅是關於轉向更清潔的能源，更是關於讓個人和社區在能源生產上實現更大的自主性和可持續性。
+avatar-avatar
+唐志偉的沙龍
+2024/04/18
+擁抱未來：太陽能投資的無限可能性，為地球注入活力
+太陽能作為一種潔淨、可再生的能源，近年來越來越受到全球範圍內投資者的青睞。隨著技術進步和成本降低，太陽能產業不僅已成為可持續發展的重要支柱，也在重新定義我們對能源投資的概念。在這篇文章中，我們將揭開太陽能投資的神秘面紗，探索其對未來的影響，以及如何為地球帶來永續發展。
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/28
+Thumbnail
+太陽光電池　斎藤勝裕
+太陽能電池的原料是硅（矽）。硅是一種相對便宜且取之於土壤中的沙子和岩石等原材料，因此相當豐富。然而，太陽能電池需要高純度的硅，這就需要龐大的電力和設備完善的工廠，因此成本相對較高且不可估量。因此，一些不使用硅的化合物太陽能電池和有機太陽能電池等技術正在不斷發展。雖然這些新技術的原料成本較高，轉換效率
+#太陽能板回收
+#太陽光発電
+#太陽電池斎藤勝裕
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/24
+Thumbnail
+太陽能模組廢棄物 12之2032年問題
+併網型太陽光電發電系統是指太陽能發電系統與電網相連，將所產生的太陽能電力輸送到電網中。這樣的系統通常包括太陽能電池板、逆變器、連接線和計量裝置等組件。太陽能電池板將太陽能轉換為直流電，逆變器將直流電轉換為交流電，然後輸送到電網中。
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/23
+Thumbnail
+太陽能模組廢棄物 11之2032年問題
+太陽電池晶體市場的規模被估計為2022年的46億美元，預測從2023年到2032年的年平均增長率為12.8％，預計到2032年將達到142億美元。在全球轉向可持續能源的過程中，太陽電池市場正在經歷革命性的急速增長。太陽電池，也被稱為光電池，作為先進技術，正在崛起，以減少溫室氣體排放、應對氣候變化，確
+#太陽能板回收
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/09
+Thumbnail
+太陽光發電 aka 太陽能 5 有關回收
+將太陽能電池板視為再生資源進行回收有著眾多優點。 1. **近乎100%的可回收性：** 透過將太陽光電池板分解成各種材料並進行再利用，太陽能電池板可以實現近乎100%的回收率。這種流程包括將廢棄的電池板進行材料分類和精製，使其再次能夠以材料的形式進入市場。
+#太陽光発電
+#太陽光発電所
+#太陽光パネル
+avatar-avatar
+Yuwei Cheng的沙龍
+2024/01/06
+Thumbnail
+太陽光發電 aka 太陽能 2
+太陽能發電作為全球推廣的可再生能源，其優點不僅在於利用無窮盡的太陽能。當太陽能電池板達到壽命時，其處理和回收方式成為一個重大問題。這是因為太陽能電池板大量生產和安裝，但在其壽命結束時的適當處理和回收方面尚未充分建立。本文將探討太陽能電池板的廢棄和回收現狀、挑戰，以及未來的展望。
+#太陽能板回收
+#太陽光発電
+#太陽光発電所</t>
+  </si>
+  <si>
+    <t>2024-12-28 12:15:17</t>
+  </si>
+  <si>
+    <t>中國科學院研究團隊與德國波茨坦大學科學家合作，研發出光電轉化效率達25.7%的串聯太陽能電池，此突破性成果已發表於《自然》期刊。該技術結合過氧化物太陽能電池與新型有機吸收劑，成功實現1.36V的開路電壓，大幅提升了效率並改善了電池性能和穩定性。此技術具有高效率、低成本的優勢，預計將在便攜式能源、建築光伏一體化、交通工具及可穿戴設備等多個領域得到廣泛應用，並有助於全球能源轉型及實現減排目標。然而，未來仍需克服電池穩定性、大規模生產可行性以及材料缺陷控制等挑戰。</t>
+  </si>
+  <si>
+    <t>中國在太陽能電池技術領域取得重大突破，串聯太陽能電池的光電轉化效率達到25.7%，這項技術由中國科學院研究團隊與德國波茨坦大學科學家共同開發，並發表於國際頂尖期刊《自然》。研究團隊將過氧化物太陽能電池與新型有機吸收劑結合，成功實現了1.36V的開路電壓，這對提升鈣鈦礦/有機疊層太陽能電池的效率至關重要。這項技術的突破為串聯太陽能電池的商業化鋪平了道路，預計將在多個領域得到廣泛應用，並有助於推動全球能源轉型。</t>
+  </si>
+  <si>
+    <t>串聯太陽能電池、光電轉化效率、25.7%、中國科學院、德國波茨坦大學、過氧化物太陽能電池、有機吸收劑、鈣鈦礦、開路電壓、清潔能源、能源轉型、商業化、減碳、巴黎協定、太陽能市場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">光電轉化效率高達25.7%，創下新紀錄。
+結合過氧化物與有機吸收劑，技術創新性高。
+成本低於傳統矽基太陽能電池，具有商業化潛力。
+應用範圍廣泛，市場前景巨大。
+中德合作，展現國際科研協作的成功案例。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電池穩定性仍需提升。
+大規模生產的可行性仍待驗證。
+材料缺陷控制技術仍需完善。
+商業化過程可能面臨挑戰，例如市場競爭等。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推動全球能源轉型，減少碳排放。
+創造大量就業機會，促進相關產業發展。
+滿足不同領域的能源需求，例如便攜式裝置、建築等。
+提升中國在清潔能源技術領域的國際地位。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他新興太陽能技術的競爭。
+政策法規的變動影響商業化進程。
+原材料價格波動影響生產成本。
+技術瓶頸突破的時程與預期不符。
+</t>
+  </si>
+  <si>
+    <t>謝展寰評核紅館天台製冷塗層效益 考慮應用新建公共設施</t>
+  </si>
+  <si>
+    <t>https://news.now.com/home/local/player?newsId=588163</t>
+  </si>
+  <si>
+    <t>Now 新聞【Now新聞台】環境及生態局局長謝展寰指，正評核紅館天台製冷塗層的效益，若理想會考慮加以應用。14 小時前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.謝展寰評核紅館天台製冷塗層效益　考慮應用新建公共設施
+【Now新聞台】環境及生態局局長謝展寰指，正評核紅館天台製冷塗層的效益，若理想會考慮加以應用。
+謝展寰早前到紅館天台觀看塗上的製冷塗層，指塗層可為紅館每年節省約30萬度電，相等於減少約150噸碳排放量。他指會評核成本效益，若效果理想，會考慮將這類技術應用在新建的公共設施。
+謝展寰在網誌指，他近期與一間「聲學超材料產品」代表會面，該企業獲局方資助330多萬元，將回收塑料升級再造，應用於工地的隔音裝置，局方正協助企業在港設立廠房，回收塑膠和生產產品。
+ </t>
+  </si>
+  <si>
+    <t>2024-12-29 15:09:41</t>
+  </si>
+  <si>
+    <t>環境及生態局局長謝展寰表示，正在評估紅館天台使用製冷塗層的效益。該塗層預計每年可為紅館節省約30萬度電，減少約150噸碳排放量。如果成本效益理想，政府考慮將此技術應用於新建公共設施。此外，謝展寰也提及環境及生態局資助一間企業330多萬元，將回收塑料升級再造，應用於工地的隔音裝置，並協助該企業在香港設立廠房。</t>
+  </si>
+  <si>
+    <t>環境及生態局局長謝展寰指，正評核紅館天台製冷塗層的效益，若理想會考慮加以應用。塗層可為紅館每年節省約30萬度電，減少約150噸碳排放量。他指會評核成本效益，若效果理想，會考慮將這類技術應用在新建的公共設施。局方資助一間企業330多萬元，將回收塑料升級再造，應用於工地的隔音裝置，局方正協助企業在港設立廠房，回收塑膠和生產產品。</t>
+  </si>
+  <si>
+    <t>謝展寰、紅館、製冷塗層、節能減碳、成本效益、公共設施、回收塑料、隔音裝置、環保</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功案例：紅館天台製冷塗層的節能減碳效果明顯，提供可複製的成功案例。
+政策支持：政府積極推動環保措施，並提供資金支持相關企業。
+雙重效益：既能節能減碳，又能促進資源回收再利用。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成本效益仍待評估：製冷塗層的實際成本效益有待進一步評估，才能決定是否大規模應用。
+技術應用範圍：製冷塗層的應用範圍可能受限於建築物類型和氣候條件。
+推廣速度：將環保技術推廣至所有新建公共設施，需要時間和資源。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大規模應用：若成本效益理想，製冷塗層可應用於更多公共建築物，達到更大的節能減碳效果。
+技術升級：持續研發和改進環保技術，提高其效率和應用範圍。
+產業合作：政府與企業合作，推動環保產業發展，創造更多就業機會。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">技術瓶頸：製冷塗層技術可能存在一些技術瓶頸，限制其大規模應用。
+財政限制：政府財政資源有限，可能影響環保措施的推行速度。
+市場競爭：其他環保技術的出現，可能影響製冷塗層的市場份額。
 </t>
   </si>
 </sst>
@@ -5712,7 +6300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S102"/>
+  <dimension ref="A1:S106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -8178,13 +8766,13 @@
         <v>470</v>
       </c>
       <c r="N42" t="s" s="0">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="O42" t="s" s="0">
         <v>135</v>
       </c>
       <c r="P42" t="s" s="0">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="Q42" t="s" s="0">
         <v>66</v>
@@ -8198,58 +8786,58 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F43" t="s" s="0">
         <v>126</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I43" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J43" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="K43" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L43" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M43" t="s" s="0">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N43" t="s" s="0">
-        <v>257</v>
+        <v>484</v>
       </c>
       <c r="O43" t="s" s="0">
         <v>135</v>
       </c>
       <c r="P43" t="s" s="0">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Q43" t="s" s="0">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="R43" t="s" s="0">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S43" t="s" s="0">
         <v>36</v>
@@ -8257,46 +8845,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B44" t="s" s="0">
+        <v>486</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="K44" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="L44" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="M44" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="N44" t="s" s="0">
         <v>484</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>485</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>486</v>
-      </c>
-      <c r="E44" t="s" s="0">
-        <v>487</v>
-      </c>
-      <c r="F44" t="s" s="0">
-        <v>488</v>
-      </c>
-      <c r="G44" t="s" s="0">
-        <v>489</v>
-      </c>
-      <c r="H44" t="s" s="0">
-        <v>490</v>
-      </c>
-      <c r="I44" t="s" s="0">
-        <v>491</v>
-      </c>
-      <c r="J44" t="s" s="0">
-        <v>492</v>
-      </c>
-      <c r="K44" t="s" s="0">
-        <v>493</v>
-      </c>
-      <c r="L44" t="s" s="0">
-        <v>494</v>
-      </c>
-      <c r="M44" t="s" s="0">
-        <v>495</v>
-      </c>
-      <c r="N44" t="s" s="0">
-        <v>496</v>
       </c>
       <c r="O44" t="s" s="0">
         <v>36</v>
@@ -8316,46 +8904,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F45" t="s" s="0">
         <v>224</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I45" t="s" s="0">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J45" t="s" s="0">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K45" t="s" s="0">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L45" t="s" s="0">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M45" t="s" s="0">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N45" t="s" s="0">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="O45" t="s" s="0">
         <v>34</v>
@@ -8375,19 +8963,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D46" t="s" s="0">
         <v>119</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F46" t="s" s="0">
         <v>115</v>
@@ -8434,46 +9022,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F47" t="s" s="0">
         <v>126</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I47" t="s" s="0">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J47" t="s" s="0">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K47" t="s" s="0">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L47" t="s" s="0">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M47" t="s" s="0">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N47" t="s" s="0">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O47" t="s" s="0">
         <v>135</v>
@@ -8493,19 +9081,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D48" t="s" s="0">
         <v>119</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F48" t="s" s="0">
         <v>115</v>
@@ -8552,19 +9140,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D49" t="s" s="0">
         <v>119</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F49" t="s" s="0">
         <v>115</v>
@@ -8611,46 +9199,46 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F50" t="s" s="0">
         <v>24</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I50" t="s" s="0">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="J50" t="s" s="0">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K50" t="s" s="0">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L50" t="s" s="0">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M50" t="s" s="0">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="N50" t="s" s="0">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="O50" t="s" s="0">
         <v>33</v>
@@ -8662,7 +9250,7 @@
         <v>137</v>
       </c>
       <c r="R50" t="s" s="0">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="S50" t="s" s="0">
         <v>36</v>
@@ -8670,19 +9258,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D51" t="s" s="0">
         <v>119</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F51" t="s" s="0">
         <v>115</v>
@@ -8729,43 +9317,43 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F52" t="s" s="0">
         <v>237</v>
       </c>
       <c r="G52" t="s" s="0">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="I52" t="s" s="0">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="J52" t="s" s="0">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K52" t="s" s="0">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L52" t="s" s="0">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M52" t="s" s="0">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N52" t="s" s="0">
         <v>217</v>
@@ -8788,55 +9376,55 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F53" t="s" s="0">
         <v>143</v>
       </c>
       <c r="G53" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I53" t="s" s="0">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J53" t="s" s="0">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K53" t="s" s="0">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L53" t="s" s="0">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M53" t="s" s="0">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N53" t="s" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O53" t="s" s="0">
         <v>36</v>
       </c>
       <c r="P53" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="Q53" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R53" t="s" s="0">
         <v>36</v>
@@ -8847,43 +9435,43 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F54" t="s" s="0">
         <v>143</v>
       </c>
       <c r="G54" t="s" s="0">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I54" t="s" s="0">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J54" t="s" s="0">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K54" t="s" s="0">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L54" t="s" s="0">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M54" t="s" s="0">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N54" t="s" s="0">
         <v>216</v>
@@ -8898,7 +9486,7 @@
         <v>335</v>
       </c>
       <c r="R54" t="s" s="0">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S54" t="s" s="0">
         <v>36</v>
@@ -8906,43 +9494,43 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G55" t="s" s="0">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I55" t="s" s="0">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J55" t="s" s="0">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K55" t="s" s="0">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L55" t="s" s="0">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M55" t="s" s="0">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N55" t="s" s="0">
         <v>134</v>
@@ -8954,7 +9542,7 @@
         <v>360</v>
       </c>
       <c r="Q55" t="s" s="0">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R55" t="s" s="0">
         <v>35</v>
@@ -8965,46 +9553,46 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G56" t="s" s="0">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I56" t="s" s="0">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J56" t="s" s="0">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K56" t="s" s="0">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="L56" t="s" s="0">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M56" t="s" s="0">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N56" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O56" t="s" s="0">
         <v>135</v>
@@ -9024,46 +9612,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G57" t="s" s="0">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H57" t="s" s="0">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I57" t="s" s="0">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="J57" t="s" s="0">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K57" t="s" s="0">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="L57" t="s" s="0">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M57" t="s" s="0">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N57" t="s" s="0">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="O57" t="s" s="0">
         <v>135</v>
@@ -9072,10 +9660,10 @@
         <v>360</v>
       </c>
       <c r="Q57" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="R57" t="s" s="0">
-        <v>632</v>
+        <v>152</v>
       </c>
       <c r="S57" t="s" s="0">
         <v>36</v>
@@ -9083,46 +9671,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G58" t="s" s="0">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H58" t="s" s="0">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I58" t="s" s="0">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="J58" t="s" s="0">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K58" t="s" s="0">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L58" t="s" s="0">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M58" t="s" s="0">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="N58" t="s" s="0">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O58" t="s" s="0">
         <v>36</v>
@@ -9134,7 +9722,7 @@
         <v>360</v>
       </c>
       <c r="R58" t="s" s="0">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="S58" t="s" s="0">
         <v>36</v>
@@ -9142,46 +9730,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G59" t="s" s="0">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H59" t="s" s="0">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I59" t="s" s="0">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J59" t="s" s="0">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="K59" t="s" s="0">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L59" t="s" s="0">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M59" t="s" s="0">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="N59" t="s" s="0">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O59" t="s" s="0">
         <v>36</v>
@@ -9201,43 +9789,43 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G60" t="s" s="0">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H60" t="s" s="0">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I60" t="s" s="0">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="J60" t="s" s="0">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="K60" t="s" s="0">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L60" t="s" s="0">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M60" t="s" s="0">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="N60" t="s" s="0">
         <v>335</v>
@@ -9260,46 +9848,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F61" t="s" s="0">
         <v>126</v>
       </c>
       <c r="G61" t="s" s="0">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I61" t="s" s="0">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J61" t="s" s="0">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K61" t="s" s="0">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L61" t="s" s="0">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="M61" t="s" s="0">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N61" t="s" s="0">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O61" t="s" s="0">
         <v>135</v>
@@ -9319,46 +9907,46 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G62" t="s" s="0">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H62" t="s" s="0">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I62" t="s" s="0">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="J62" t="s" s="0">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K62" t="s" s="0">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="L62" t="s" s="0">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="M62" t="s" s="0">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="N62" t="s" s="0">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="O62" t="s" s="0">
         <v>135</v>
@@ -9370,7 +9958,7 @@
         <v>32</v>
       </c>
       <c r="R62" t="s" s="0">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="S62" t="s" s="0">
         <v>36</v>
@@ -9378,52 +9966,52 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G63" t="s" s="0">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I63" t="s" s="0">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="J63" t="s" s="0">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K63" t="s" s="0">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L63" t="s" s="0">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M63" t="s" s="0">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N63" t="s" s="0">
-        <v>713</v>
+        <v>215</v>
       </c>
       <c r="O63" t="s" s="0">
         <v>714</v>
       </c>
       <c r="P63" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="Q63" t="s" s="0">
         <v>33</v>
@@ -9511,7 +10099,7 @@
         <v>724</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G65" t="s" s="0">
         <v>725</v>
@@ -9535,7 +10123,7 @@
         <v>731</v>
       </c>
       <c r="N65" t="s" s="0">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O65" t="s" s="0">
         <v>135</v>
@@ -9653,7 +10241,7 @@
         <v>757</v>
       </c>
       <c r="N67" t="s" s="0">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O67" t="s" s="0">
         <v>33</v>
@@ -9830,7 +10418,7 @@
         <v>788</v>
       </c>
       <c r="N70" t="s" s="0">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="O70" t="s" s="0">
         <v>33</v>
@@ -9842,7 +10430,7 @@
         <v>771</v>
       </c>
       <c r="R70" t="s" s="0">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="S70" t="s" s="0">
         <v>36</v>
@@ -9850,43 +10438,43 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F71" t="s" s="0">
         <v>224</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I71" t="s" s="0">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="J71" t="s" s="0">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="K71" t="s" s="0">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="L71" t="s" s="0">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="M71" t="s" s="0">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="N71" t="s" s="0">
         <v>257</v>
@@ -9909,43 +10497,43 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F72" t="s" s="0">
         <v>224</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="I72" t="s" s="0">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="J72" t="s" s="0">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="K72" t="s" s="0">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="L72" t="s" s="0">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="M72" t="s" s="0">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N72" t="s" s="0">
         <v>34</v>
@@ -9968,43 +10556,43 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="I73" t="s" s="0">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="J73" t="s" s="0">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="K73" t="s" s="0">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="L73" t="s" s="0">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="M73" t="s" s="0">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="N73" t="s" s="0">
         <v>135</v>
@@ -10027,19 +10615,19 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D74" t="s" s="0">
         <v>119</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F74" t="s" s="0">
         <v>115</v>
@@ -10086,43 +10674,43 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F75" t="s" s="0">
         <v>224</v>
       </c>
       <c r="G75" t="s" s="0">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="I75" t="s" s="0">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="J75" t="s" s="0">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="K75" t="s" s="0">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L75" t="s" s="0">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M75" t="s" s="0">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="N75" t="s" s="0">
         <v>109</v>
@@ -10145,43 +10733,43 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F76" t="s" s="0">
         <v>24</v>
       </c>
       <c r="G76" t="s" s="0">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H76" t="s" s="0">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="I76" t="s" s="0">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="J76" t="s" s="0">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="K76" t="s" s="0">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="L76" t="s" s="0">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="M76" t="s" s="0">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="N76" t="s" s="0">
         <v>81</v>
@@ -10196,7 +10784,7 @@
         <v>335</v>
       </c>
       <c r="R76" t="s" s="0">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="S76" t="s" s="0">
         <v>36</v>
@@ -10204,46 +10792,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F77" t="s" s="0">
         <v>126</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I77" t="s" s="0">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J77" t="s" s="0">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="K77" t="s" s="0">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="L77" t="s" s="0">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="M77" t="s" s="0">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="N77" t="s" s="0">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O77" t="s" s="0">
         <v>135</v>
@@ -10263,46 +10851,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F78" t="s" s="0">
         <v>237</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I78" t="s" s="0">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J78" t="s" s="0">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K78" t="s" s="0">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="L78" t="s" s="0">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="M78" t="s" s="0">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="N78" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O78" t="s" s="0">
         <v>34</v>
@@ -10322,46 +10910,46 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F79" t="s" s="0">
         <v>72</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="I79" t="s" s="0">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="J79" t="s" s="0">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K79" t="s" s="0">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="L79" t="s" s="0">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M79" t="s" s="0">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="N79" t="s" s="0">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="O79" t="s" s="0">
         <v>33</v>
@@ -10381,46 +10969,46 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F80" t="s" s="0">
         <v>72</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="I80" t="s" s="0">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="J80" t="s" s="0">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="K80" t="s" s="0">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="L80" t="s" s="0">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M80" t="s" s="0">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N80" t="s" s="0">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O80" t="s" s="0">
         <v>33</v>
@@ -10440,43 +11028,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="G81" t="s" s="0">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H81" t="s" s="0">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I81" t="s" s="0">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J81" t="s" s="0">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K81" t="s" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="L81" t="s" s="0">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M81" t="s" s="0">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="N81" t="s" s="0">
         <v>257</v>
@@ -10491,7 +11079,7 @@
         <v>66</v>
       </c>
       <c r="R81" t="s" s="0">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="S81" t="s" s="0">
         <v>36</v>
@@ -10499,43 +11087,43 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F82" t="s" s="0">
         <v>237</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="I82" t="s" s="0">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="J82" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="K82" t="s" s="0">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="L82" t="s" s="0">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M82" t="s" s="0">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N82" t="s" s="0">
         <v>81</v>
@@ -10550,7 +11138,7 @@
         <v>34</v>
       </c>
       <c r="R82" t="s" s="0">
-        <v>929</v>
+        <v>715</v>
       </c>
       <c r="S82" t="s" s="0">
         <v>36</v>
@@ -10597,7 +11185,7 @@
         <v>941</v>
       </c>
       <c r="N83" t="s" s="0">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O83" t="s" s="0">
         <v>34</v>
@@ -10656,7 +11244,7 @@
         <v>953</v>
       </c>
       <c r="N84" t="s" s="0">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O84" t="s" s="0">
         <v>34</v>
@@ -10715,7 +11303,7 @@
         <v>965</v>
       </c>
       <c r="N85" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O85" t="s" s="0">
         <v>34</v>
@@ -10892,7 +11480,7 @@
         <v>1002</v>
       </c>
       <c r="N88" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O88" t="s" s="0">
         <v>34</v>
@@ -11128,7 +11716,7 @@
         <v>1052</v>
       </c>
       <c r="N92" t="s" s="0">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O92" t="s" s="0">
         <v>33</v>
@@ -11258,7 +11846,7 @@
         <v>66</v>
       </c>
       <c r="R94" t="s" s="0">
-        <v>715</v>
+        <v>789</v>
       </c>
       <c r="S94" t="s" s="0">
         <v>36</v>
@@ -11305,7 +11893,7 @@
         <v>1090</v>
       </c>
       <c r="N95" t="s" s="0">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="O95" t="s" s="0">
         <v>33</v>
@@ -11364,7 +11952,7 @@
         <v>1102</v>
       </c>
       <c r="N96" t="s" s="0">
-        <v>1103</v>
+        <v>471</v>
       </c>
       <c r="O96" t="s" s="0">
         <v>33</v>
@@ -11384,46 +11972,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="B97" t="s" s="0">
         <v>1104</v>
       </c>
-      <c r="B97" t="s" s="0">
+      <c r="C97" t="s" s="0">
         <v>1105</v>
       </c>
-      <c r="C97" t="s" s="0">
+      <c r="D97" t="s" s="0">
         <v>1106</v>
       </c>
-      <c r="D97" t="s" s="0">
+      <c r="E97" t="s" s="0">
         <v>1107</v>
       </c>
-      <c r="E97" t="s" s="0">
+      <c r="F97" t="s" s="0">
         <v>1108</v>
       </c>
-      <c r="F97" t="s" s="0">
+      <c r="G97" t="s" s="0">
         <v>1109</v>
       </c>
-      <c r="G97" t="s" s="0">
+      <c r="H97" t="s" s="0">
         <v>1110</v>
       </c>
-      <c r="H97" t="s" s="0">
+      <c r="I97" t="s" s="0">
         <v>1111</v>
       </c>
-      <c r="I97" t="s" s="0">
+      <c r="J97" t="s" s="0">
         <v>1112</v>
       </c>
-      <c r="J97" t="s" s="0">
+      <c r="K97" t="s" s="0">
         <v>1113</v>
       </c>
-      <c r="K97" t="s" s="0">
+      <c r="L97" t="s" s="0">
         <v>1114</v>
       </c>
-      <c r="L97" t="s" s="0">
+      <c r="M97" t="s" s="0">
         <v>1115</v>
       </c>
-      <c r="M97" t="s" s="0">
+      <c r="N97" t="s" s="0">
         <v>1116</v>
-      </c>
-      <c r="N97" t="s" s="0">
-        <v>713</v>
       </c>
       <c r="O97" t="s" s="0">
         <v>135</v>
@@ -11432,7 +12020,7 @@
         <v>33</v>
       </c>
       <c r="Q97" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R97" t="s" s="0">
         <v>52</v>
@@ -11482,7 +12070,7 @@
         <v>1127</v>
       </c>
       <c r="N98" t="s" s="0">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="O98" t="s" s="0">
         <v>33</v>
@@ -11600,19 +12188,19 @@
         <v>1152</v>
       </c>
       <c r="N100" t="s" s="0">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="O100" t="s" s="0">
         <v>135</v>
       </c>
       <c r="P100" t="s" s="0">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Q100" t="s" s="0">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="R100" t="s" s="0">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="S100" t="s" s="0">
         <v>36</v>
@@ -11718,7 +12306,7 @@
         <v>1176</v>
       </c>
       <c r="N102" t="s" s="0">
-        <v>1103</v>
+        <v>471</v>
       </c>
       <c r="O102" t="s" s="0">
         <v>135</v>
@@ -11733,6 +12321,242 @@
         <v>36</v>
       </c>
       <c r="S102" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>1179</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="G103" t="s" s="0">
+        <v>1183</v>
+      </c>
+      <c r="H103" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="I103" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="J103" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="K103" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="L103" t="s" s="0">
+        <v>1188</v>
+      </c>
+      <c r="M103" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="N103" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="O103" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="P103" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="Q103" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="R103" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="S103" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>1193</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="G104" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="H104" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="I104" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="J104" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="K104" t="s" s="0">
+        <v>1199</v>
+      </c>
+      <c r="L104" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="M104" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="N104" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="O104" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="P104" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="Q104" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="R104" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="S104" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>1202</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>1206</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="G105" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="H105" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="I105" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="J105" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K105" t="s" s="0">
+        <v>1211</v>
+      </c>
+      <c r="L105" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="M105" t="s" s="0">
+        <v>1213</v>
+      </c>
+      <c r="N105" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="O105" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="P105" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="Q105" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R105" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="S105" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>1214</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>1216</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="G106" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="H106" t="s" s="0">
+        <v>1220</v>
+      </c>
+      <c r="I106" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="J106" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="K106" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="L106" t="s" s="0">
+        <v>1224</v>
+      </c>
+      <c r="M106" t="s" s="0">
+        <v>1225</v>
+      </c>
+      <c r="N106" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="O106" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="P106" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="Q106" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="R106" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="S106" t="s" s="0">
         <v>36</v>
       </c>
     </row>
